--- a/Excel/secao_14_projeto_final/projeto_fluxo_de_caixa.xlsx
+++ b/Excel/secao_14_projeto_final/projeto_fluxo_de_caixa.xlsx
@@ -8,12 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.gomes\Desktop\Cursos\Excel\secao_14_projeto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A93CE-7ED8-4394-861F-B9BBF8C4EC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC519DA0-7F87-4DAE-930F-CA2B4DC9C61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B0F91605-3ADC-4A73-9DEB-952AC89617AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
+    <sheet name="Matriz" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="PCEntradasN1" sheetId="3" r:id="rId3"/>
+    <sheet name="PCEntradasN2" sheetId="4" r:id="rId4"/>
+    <sheet name="PCSaídasN1" sheetId="5" r:id="rId5"/>
+    <sheet name="PCSaídasN2" sheetId="6" r:id="rId6"/>
+    <sheet name="RegistroEntradas" sheetId="7" r:id="rId7"/>
+    <sheet name="RegistroSaídas" sheetId="8" r:id="rId8"/>
+    <sheet name="FluxoCaixaConsolidado" sheetId="9" r:id="rId9"/>
+    <sheet name="DetalhaReceita" sheetId="10" r:id="rId10"/>
+    <sheet name="DetalhaDespesa " sheetId="11" r:id="rId11"/>
+    <sheet name="ContasPagar" sheetId="12" r:id="rId12"/>
+    <sheet name="ContasReceber" sheetId="13" r:id="rId13"/>
+    <sheet name="ContasReceberVencidas" sheetId="14" r:id="rId14"/>
+    <sheet name="DashBoardFinanceiroAtual" sheetId="15" r:id="rId15"/>
+    <sheet name="DashBoardFinanceiroMensal" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -49,12 +64,58 @@
   <si>
     <t>Darshan Industries</t>
   </si>
+  <si>
+    <t>TÍTULO</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADA - Nível 1</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADA - Nível 2</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA - Nível 1</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA - Nível 2</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ENTRADAS DE CAIXA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE SAÍDAS DE CAIXA</t>
+  </si>
+  <si>
+    <t>FLUXO DE CAIXA E RESULTADO MENSAL
+REGIMES DE CAIXA E DE COMPETÊNCIA</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DE RECEITA</t>
+  </si>
+  <si>
+    <t>DETALHAMENTO DE DESPESA</t>
+  </si>
+  <si>
+    <t>CONTAS A PAGAR</t>
+  </si>
+  <si>
+    <t>CONTAS A RECEBER</t>
+  </si>
+  <si>
+    <t>CONTAS A RECEBER VENCIDAS</t>
+  </si>
+  <si>
+    <t>DASHBOARD FINANCEIRO ATUAL</t>
+  </si>
+  <si>
+    <t>DASHBOARD FINANCEIRO MENSAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +154,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +196,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,19 +215,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,6 +495,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Retângulo 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B81EC76-33D8-0BA0-1702-0AFB9B76CBE8}"/>
@@ -489,6 +592,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo 10">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BCD32B0-3CAE-7A0C-8B26-58E7E1CB0387}"/>
@@ -582,6 +686,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Retângulo 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0847FC8B-5AF3-ABBF-A9FA-D5BC92DF1FAF}"/>
@@ -678,6 +783,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Retângulo 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2091CF95-CEA2-97AD-68AE-40A5E4DF3509}"/>
@@ -771,6 +877,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Retângulo 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF55EC3-039F-6F24-E5BC-115063C93A88}"/>
@@ -864,6 +971,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Retângulo 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD3F1EC-D4AF-DCCF-C3BE-5144E7DC96B8}"/>
@@ -957,6 +1065,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Retângulo 15">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF45AFF-38D3-4658-A7EC-A7646D6B9379}"/>
@@ -1053,6 +1162,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Retângulo 16">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1E39E2-1E04-480B-BBC6-93BCA60DB733}"/>
@@ -1133,6 +1243,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Retângulo 17">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16D12A4-DAB1-4F4A-939C-579BDCBC1626}"/>
@@ -1213,6 +1324,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Retângulo 18">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDBA360-0F5C-4E1D-94A2-654021A1B7C3}"/>
@@ -1293,6 +1405,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Retângulo 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE4E57F-3BD8-4C2F-B10E-1A8BF662A803}"/>
@@ -1373,6 +1486,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Retângulo 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E87CE9-A07C-4E99-9355-8AFE01D7044F}"/>
@@ -1456,6 +1570,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Retângulo 33">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F2E998-A031-6437-F00E-D68E24FA4A2B}"/>
@@ -1549,6 +1664,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Retângulo 34">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D74A02C-8829-80BE-E6D8-A2360CEE9925}"/>
@@ -1653,7 +1769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1674,6 +1790,1175 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F455474-BBC7-4D4E-A1CE-4FB1E1C7816C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE881867-87CE-4343-A0F8-980C53A65131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD74086-E3E1-43D6-B3FE-FAE456984E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9F2298-84AA-4837-A42E-879C66B357E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8851F81-6506-42E5-B6CC-C7177DE1DAC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82982EE1-4A15-46CC-BB65-0D1DBEA8DE8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{588D588B-3C4A-4A56-AEB5-A1013BDDCBA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Retângulo 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025FE544-4BD5-422F-87ED-7A0AF5608C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC05A7-44E3-47E8-ABE8-FFFDF539FBEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BAA016-7EF3-4067-A778-50C05DFA4B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5783A081-4CDB-4E15-9868-393698C53C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455560F8-066B-4F54-8F2D-AF9951399E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0A4438-3961-4CDC-A96C-7094E39D29B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EAAA4A-D57B-4717-9D74-CD8174FD54B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3F118F-6D1C-4EA6-87DA-4FA0111F0382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="561975"/>
+          <a:ext cx="904875" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Início</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1979,23 +3264,21 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:O19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1"/>
@@ -2004,43 +3287,42 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+    <row r="4" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2056,7 +3338,7 @@
     </row>
     <row r="17" spans="9:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="7"/>
+      <c r="I19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2066,4 +3348,1040 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1978B3FE-DD36-4822-BD72-C32AC9227838}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4791D9-AA78-4237-A340-7044085B1341}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8B5C5E-209E-4FAA-B0D5-457BAB040CC1}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3123644-4193-42EE-9632-6756712684D8}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1899D21F-7BAD-4069-AFB6-518F9D80C6AA}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE70B4D-8C0A-4897-90E1-143CE5AD9BCA}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072786B8-D1DC-40EA-8FCA-2E021835854E}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90245A66-5D0E-40F7-8ABB-3EAD37C2EF17}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F29C5FC-B3DF-401A-93B2-C5CF55D60E89}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA41A2D9-7E7C-494F-A390-A762D13093B5}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB400DB-58B3-49A9-9A09-4D78B0DC91FE}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A27515-8031-4110-8822-D749CD9C0760}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C105092-CBD4-4073-B9F9-D933203CB72F}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8445458-0364-44E7-9830-197173E0980D}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DDA2EC-7DE1-451F-8B8A-BBBC222A3476}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/secao_14_projeto_final/projeto_fluxo_de_caixa.xlsx
+++ b/Excel/secao_14_projeto_final/projeto_fluxo_de_caixa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.gomes\Desktop\Cursos\Excel\secao_14_projeto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC519DA0-7F87-4DAE-930F-CA2B4DC9C61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44225A94-1964-4049-AE32-53F6FF5478FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B0F91605-3ADC-4A73-9DEB-952AC89617AD}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{B0F91605-3ADC-4A73-9DEB-952AC89617AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,12 @@
     <sheet name="DashBoardFinanceiroAtual" sheetId="15" r:id="rId15"/>
     <sheet name="DashBoardFinanceiroMensal" sheetId="16" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="PCEntradasN1_Nivel_1">TbPcEntradasN1[Nível 1]</definedName>
+    <definedName name="PCEntradasN2_Nivel_1">TbPCEntradasN2[[Nível 1 ]]</definedName>
+    <definedName name="PCEntradasN2_Nivel_2">TbPCEntradasN2[Nível 2]</definedName>
+    <definedName name="PCSaídasN1_Nível_1">TbPCSaídasN1[Nível 1]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -109,12 +115,156 @@
   </si>
   <si>
     <t>DASHBOARD FINANCEIRO MENSAL</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADA NÍVEL 1</t>
+  </si>
+  <si>
+    <t>Nível 1</t>
+  </si>
+  <si>
+    <t>Empréstimos de curto prazo</t>
+  </si>
+  <si>
+    <t>Financiamentos de longo prazo</t>
+  </si>
+  <si>
+    <t>Receitas Financeiras</t>
+  </si>
+  <si>
+    <t>Venda de ativos</t>
+  </si>
+  <si>
+    <t>Vendas de mercadorias</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE ENTRADAS NÍVEL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nível 1 </t>
+  </si>
+  <si>
+    <t>Nível 2</t>
+  </si>
+  <si>
+    <t>Empréstimo de curto prazo</t>
+  </si>
+  <si>
+    <t>Empréstimos capital de giro</t>
+  </si>
+  <si>
+    <t>Juros sobre aplicações</t>
+  </si>
+  <si>
+    <t>Mobiliário próprio</t>
+  </si>
+  <si>
+    <t>Eletrodomésticos</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>Livros</t>
+  </si>
+  <si>
+    <t>Móveis</t>
+  </si>
+  <si>
+    <t>Som e imagem</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA NÍVEL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compra de mercadorias</t>
+  </si>
+  <si>
+    <t>Despesas administrativas</t>
+  </si>
+  <si>
+    <t>Despesas comerciais</t>
+  </si>
+  <si>
+    <t>Despesas financeiras</t>
+  </si>
+  <si>
+    <t>Imposto de renda</t>
+  </si>
+  <si>
+    <t>Imposto sobre as vendas</t>
+  </si>
+  <si>
+    <t>PLANO DE CONTAS DE SAÍDA NÍVEL 2</t>
+  </si>
+  <si>
+    <t>Som e Imagem</t>
+  </si>
+  <si>
+    <t>Vestuário</t>
+  </si>
+  <si>
+    <t>Comunicação - internet e telefonia</t>
+  </si>
+  <si>
+    <t>Energia elétrica</t>
+  </si>
+  <si>
+    <t>Encargos sobre os salários dos vendedores</t>
+  </si>
+  <si>
+    <t>Salários dos vendedores</t>
+  </si>
+  <si>
+    <t>Juros sobre empréstimos</t>
+  </si>
+  <si>
+    <t>IR sobre o lucro presumido</t>
+  </si>
+  <si>
+    <t>Data do Caixa Realizado</t>
+  </si>
+  <si>
+    <t>Data da competência</t>
+  </si>
+  <si>
+    <t>Data do Caixa Previsto</t>
+  </si>
+  <si>
+    <t>Conta Nível 1</t>
+  </si>
+  <si>
+    <t>Conta Nível 2</t>
+  </si>
+  <si>
+    <t>Hostórico</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>NF001</t>
+  </si>
+  <si>
+    <t>NF773</t>
+  </si>
+  <si>
+    <t>NF2639</t>
+  </si>
+  <si>
+    <t>NF-16</t>
+  </si>
+  <si>
+    <t>Geral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,7 +327,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -211,11 +367,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -224,28 +421,145 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2962,6 +3276,64 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6036148-4E03-4169-B923-183719B8F8F1}" name="TbPcEntradasN1" displayName="TbPcEntradasN1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B4:B9" xr:uid="{F6036148-4E03-4169-B923-183719B8F8F1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8497777F-EEC2-4246-9694-C79DD6F062C6}" name="Nível 1" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B1F385-4C25-4C7F-9D90-AE28445CED30}" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B4:C13" xr:uid="{A4B1F385-4C25-4C7F-9D90-AE28445CED30}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{43418F28-3016-432A-9CB8-B75F2638B401}" name="Nível 1 "/>
+    <tableColumn id="2" xr3:uid="{B498796E-8180-4B47-936D-A2B700172D98}" name="Nível 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DF6199E-B54F-469A-BF78-DB03614FDD1B}" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B4:B10" xr:uid="{3DF6199E-B54F-469A-BF78-DB03614FDD1B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C8164EAC-3156-4EB9-8E8F-2FC26A396EB4}" name="Nível 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6AA1FA7F-9F0B-4046-BF4A-BCBD800ADA22}" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B4:C15" xr:uid="{6AA1FA7F-9F0B-4046-BF4A-BCBD800ADA22}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{217D2477-5E6B-41F4-9F0A-9C0266BD4A7A}" name="Nível 1"/>
+    <tableColumn id="2" xr3:uid="{A6E0B336-1F05-450F-A33A-A99A02491CF2}" name="Nível 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{77800E36-C2B8-4EC2-BA85-D563A774B892}" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B3:H7" xr:uid="{77800E36-C2B8-4EC2-BA85-D563A774B892}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4C1805C6-7AD3-4723-B94B-809B50706F76}" name="Data do Caixa Realizado" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E84FFBC0-A48C-4D30-8C19-E752EEA9620D}" name="Data da competência" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7A123657-EF7A-4BCD-8BD2-753F722131B0}" name="Data do Caixa Previsto" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D9314CB5-B4C5-4D33-AA25-0655FBD86A86}" name="Conta Nível 1"/>
+    <tableColumn id="5" xr3:uid="{3552428F-2F1E-445E-9663-B6E33FD08B49}" name="Conta Nível 2"/>
+    <tableColumn id="6" xr3:uid="{DA56175D-677F-431C-9BD4-1185027168F4}" name="Hostórico"/>
+    <tableColumn id="7" xr3:uid="{A52F080A-E3C3-4B04-BB75-8AF1187ABB56}" name="Valor" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3266,7 +3638,7 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3287,14 +3659,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,10 +3727,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,34 +3752,46 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I5" s="5"/>
     </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
@@ -3449,29 +3833,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3493,10 +3877,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,34 +3902,46 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I5" s="5"/>
     </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
@@ -3562,214 +3958,7 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1899D21F-7BAD-4069-AFB6-518F9D80C6AA}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE70B4D-8C0A-4897-90E1-143CE5AD9BCA}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072786B8-D1DC-40EA-8FCA-2E021835854E}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -3794,34 +3983,289 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="I1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I5" s="5"/>
     </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1899D21F-7BAD-4069-AFB6-518F9D80C6AA}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE70B4D-8C0A-4897-90E1-143CE5AD9BCA}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072786B8-D1DC-40EA-8FCA-2E021835854E}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
@@ -3863,29 +4307,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3907,10 +4351,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3932,34 +4377,102 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
@@ -3968,6 +4481,9 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3976,10 +4492,199 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="4" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G1:N1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B13" xr:uid="{2862B469-29CF-4B0E-A240-7DDA7FDEC5E8}">
+      <formula1>PCEntradasN1_Nivel_1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:C5" listDataValidation="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB400DB-58B3-49A9-9A09-4D78B0DC91FE}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,34 +4706,95 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
@@ -4037,18 +4803,401 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB400DB-58B3-49A9-9A09-4D78B0DC91FE}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A27515-8031-4110-8822-D749CD9C0760}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F1:N1"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B15" xr:uid="{8C76D652-69E9-463C-9C21-ABA019112F45}">
+      <formula1>PCSaídasN1_Nível_1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C105092-CBD4-4073-B9F9-D933203CB72F}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="25">
+        <v>43146</v>
+      </c>
+      <c r="C4" s="25">
+        <v>43146</v>
+      </c>
+      <c r="D4" s="25">
+        <v>43146</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="25">
+        <v>43530</v>
+      </c>
+      <c r="C5" s="25">
+        <v>43466</v>
+      </c>
+      <c r="D5" s="25">
+        <v>43496</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="26">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="25">
+        <v>43467</v>
+      </c>
+      <c r="C6" s="25">
+        <v>43467</v>
+      </c>
+      <c r="D6" s="25">
+        <v>43467</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="25">
+        <v>43535</v>
+      </c>
+      <c r="C7" s="25">
+        <v>43467</v>
+      </c>
+      <c r="D7" s="25">
+        <v>43497</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E7" xr:uid="{75F523B8-8FFC-495F-AB1C-A4320280E97F}">
+      <formula1>PCEntradasN1_Nivel_1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{C95E0B48-100E-4A09-8C7C-211C1CC12388}">
+      <formula1>OFFSET(PCEntradasN2_Nivel_2,MATCH(E4,PCEntradasN2_Nivel_1,0)-1,0,COUNTIF(PCEntradasN2_Nivel_1,E4)-0)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8445458-0364-44E7-9830-197173E0980D}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,239 +5219,46 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="I1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I5" s="5"/>
     </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A27515-8031-4110-8822-D749CD9C0760}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C105092-CBD4-4073-B9F9-D933203CB72F}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="B2:N2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8445458-0364-44E7-9830-197173E0980D}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
@@ -4319,7 +5275,7 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -4344,37 +5300,49 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="C6" s="10"/>
-    </row>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>

--- a/Excel/secao_14_projeto_final/projeto_fluxo_de_caixa.xlsx
+++ b/Excel/secao_14_projeto_final/projeto_fluxo_de_caixa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.gomes\Desktop\Cursos\Excel\secao_14_projeto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44225A94-1964-4049-AE32-53F6FF5478FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54429618-6F5C-494E-A183-5BA7606B9159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{B0F91605-3ADC-4A73-9DEB-952AC89617AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{B0F91605-3ADC-4A73-9DEB-952AC89617AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>FLUXO DE CAIXA EMPRESARIAL</t>
   </si>
@@ -256,16 +256,89 @@
   </si>
   <si>
     <t>Geral</t>
+  </si>
+  <si>
+    <t>ANO &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>FLUXO DE CAIXA -  REGIME DE CAIXA(Realizado)</t>
+  </si>
+  <si>
+    <t>ESPECIFICAÇÕES</t>
+  </si>
+  <si>
+    <t>ENTRADA</t>
+  </si>
+  <si>
+    <t>SAÍDAS</t>
+  </si>
+  <si>
+    <t>SALDO FINAL</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>SALDO INICIAL</t>
+  </si>
+  <si>
+    <t>FLUXO DE CAIXA -  REGIME DE COMPETÊNCIA(Contábil)</t>
+  </si>
+  <si>
+    <t>RESULTADO MENSAL - REGIME DE COMPETÊNCIA</t>
+  </si>
+  <si>
+    <t>TOTAL DE ENTRADAS</t>
+  </si>
+  <si>
+    <t>TOTAL DE SAÍDAS</t>
+  </si>
+  <si>
+    <t>LUCRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,8 +399,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +453,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -408,11 +515,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -429,6 +668,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -444,30 +695,49 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,15 +745,7 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -530,6 +792,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
@@ -3289,7 +3559,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B1F385-4C25-4C7F-9D90-AE28445CED30}" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B1F385-4C25-4C7F-9D90-AE28445CED30}" name="TbPCEntradasN2" displayName="TbPCEntradasN2" ref="B4:C13" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B4:C13" xr:uid="{A4B1F385-4C25-4C7F-9D90-AE28445CED30}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{43418F28-3016-432A-9CB8-B75F2638B401}" name="Nível 1 "/>
@@ -3300,7 +3570,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DF6199E-B54F-469A-BF78-DB03614FDD1B}" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3DF6199E-B54F-469A-BF78-DB03614FDD1B}" name="TbPCSaídasN1" displayName="TbPCSaídasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B4:B10" xr:uid="{3DF6199E-B54F-469A-BF78-DB03614FDD1B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C8164EAC-3156-4EB9-8E8F-2FC26A396EB4}" name="Nível 1"/>
@@ -3310,7 +3580,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6AA1FA7F-9F0B-4046-BF4A-BCBD800ADA22}" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6AA1FA7F-9F0B-4046-BF4A-BCBD800ADA22}" name="TbPCSaídasN2" displayName="TbPCSaídasN2" ref="B4:C15" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B4:C15" xr:uid="{6AA1FA7F-9F0B-4046-BF4A-BCBD800ADA22}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{217D2477-5E6B-41F4-9F0A-9C0266BD4A7A}" name="Nível 1"/>
@@ -3321,16 +3591,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{77800E36-C2B8-4EC2-BA85-D563A774B892}" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{77800E36-C2B8-4EC2-BA85-D563A774B892}" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B3:H7" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B3:H7" xr:uid="{77800E36-C2B8-4EC2-BA85-D563A774B892}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4C1805C6-7AD3-4723-B94B-809B50706F76}" name="Data do Caixa Realizado" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E84FFBC0-A48C-4D30-8C19-E752EEA9620D}" name="Data da competência" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7A123657-EF7A-4BCD-8BD2-753F722131B0}" name="Data do Caixa Previsto" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4C1805C6-7AD3-4723-B94B-809B50706F76}" name="Data do Caixa Realizado" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E84FFBC0-A48C-4D30-8C19-E752EEA9620D}" name="Data da competência" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7A123657-EF7A-4BCD-8BD2-753F722131B0}" name="Data do Caixa Previsto" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D9314CB5-B4C5-4D33-AA25-0655FBD86A86}" name="Conta Nível 1"/>
     <tableColumn id="5" xr3:uid="{3552428F-2F1E-445E-9663-B6E33FD08B49}" name="Conta Nível 2"/>
     <tableColumn id="6" xr3:uid="{DA56175D-677F-431C-9BD4-1185027168F4}" name="Hostórico"/>
-    <tableColumn id="7" xr3:uid="{A52F080A-E3C3-4B04-BB75-8AF1187ABB56}" name="Valor" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A52F080A-E3C3-4B04-BB75-8AF1187ABB56}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3659,14 +3929,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,29 +4022,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3833,29 +4103,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3902,29 +4172,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3983,29 +4253,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -4064,29 +4334,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -4145,29 +4415,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -4226,29 +4496,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -4307,29 +4577,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -4377,29 +4647,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
@@ -4529,25 +4799,25 @@
       <c r="N1" s="23"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -4706,32 +4976,32 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="8"/>
@@ -4853,31 +5123,31 @@
       <c r="N1" s="23"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5007,9 +5277,9 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -5025,6 +5295,7 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="57" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -5037,136 +5308,133 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
+      <c r="B4" s="15">
         <v>43146</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="15">
         <v>43146</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="15">
         <v>43146</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
+      <c r="B5" s="15">
         <v>43530</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="15">
         <v>43466</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="15">
         <v>43496</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="16">
         <v>823</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
+      <c r="B6" s="15">
         <v>43467</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="15">
         <v>43467</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="15">
         <v>43467</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="16">
         <v>2689</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
+      <c r="B7" s="15">
         <v>43535</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="15">
         <v>43467</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="15">
         <v>43497</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="16">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5219,29 +5487,29 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -5275,16 +5543,16 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="11.7109375" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
@@ -5300,54 +5568,483 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="2:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="28">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52">
+        <v>2</v>
+      </c>
+      <c r="E5" s="52">
+        <v>3</v>
+      </c>
+      <c r="F5" s="52">
+        <v>4</v>
+      </c>
+      <c r="G5" s="52">
+        <v>5</v>
+      </c>
+      <c r="H5" s="52">
+        <v>6</v>
+      </c>
+      <c r="I5" s="52">
+        <v>7</v>
+      </c>
+      <c r="J5" s="52">
+        <v>8</v>
+      </c>
+      <c r="K5" s="52">
+        <v>9</v>
+      </c>
+      <c r="L5" s="52">
+        <v>10</v>
+      </c>
+      <c r="M5" s="52">
+        <v>11</v>
+      </c>
+      <c r="N5" s="52">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="36">
+        <v>10</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="39">
+        <v>-10</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="36">
+        <v>10</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="39">
+        <v>-10</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="36">
+        <v>10</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="39">
+        <v>-10</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
+    </row>
+    <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51"/>
+    </row>
+    <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="K2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
